--- a/ky/downloads/data-excel/1.2.1.1a.xlsx
+++ b/ky/downloads/data-excel/1.2.1.1a.xlsx
@@ -382,8 +382,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -566,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -609,14 +609,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,13 +631,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -646,10 +646,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -658,22 +658,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8432,11 +8432,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8446,7 +8444,7 @@
     <col min="4" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -8461,7 +8459,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -8476,7 +8474,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -8485,7 +8483,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -8519,8 +8517,11 @@
       <c r="K4" s="8">
         <v>2022</v>
       </c>
+      <c r="L4" s="8">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>87</v>
       </c>
@@ -8554,8 +8555,11 @@
       <c r="K5" s="38">
         <v>24.2</v>
       </c>
+      <c r="L5" s="38">
+        <v>21.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>95</v>
       </c>
@@ -8573,8 +8577,9 @@
       <c r="I6" s="33"/>
       <c r="J6" s="42"/>
       <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -8608,8 +8613,11 @@
       <c r="K7" s="14">
         <v>25.5</v>
       </c>
+      <c r="L7" s="14">
+        <v>23.2</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>98</v>
       </c>
@@ -8643,8 +8651,11 @@
       <c r="K8" s="35">
         <v>22.3</v>
       </c>
+      <c r="L8" s="35">
+        <v>19.899999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>93</v>
       </c>
@@ -8662,8 +8673,9 @@
       <c r="I9" s="36"/>
       <c r="J9" s="43"/>
       <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
@@ -8697,8 +8709,11 @@
       <c r="K10" s="31">
         <v>18</v>
       </c>
+      <c r="L10" s="31">
+        <v>17.100000000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
@@ -8732,8 +8747,11 @@
       <c r="K11" s="31">
         <v>18.899999999999999</v>
       </c>
+      <c r="L11" s="31">
+        <v>14.7</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -8767,8 +8785,11 @@
       <c r="K12" s="22">
         <v>21.3</v>
       </c>
+      <c r="L12" s="22">
+        <v>16.899999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
@@ -8802,8 +8823,11 @@
       <c r="K13" s="22">
         <v>30.2</v>
       </c>
+      <c r="L13" s="22">
+        <v>29.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
@@ -8837,8 +8861,11 @@
       <c r="K14" s="22">
         <v>31.7</v>
       </c>
+      <c r="L14" s="22">
+        <v>28.3</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
@@ -8872,8 +8899,11 @@
       <c r="K15" s="22">
         <v>34.1</v>
       </c>
+      <c r="L15" s="22">
+        <v>33.4</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
@@ -8907,8 +8937,11 @@
       <c r="K16" s="22">
         <v>25.8</v>
       </c>
+      <c r="L16" s="22">
+        <v>22.1</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
@@ -8942,8 +8975,11 @@
       <c r="K17" s="22">
         <v>20</v>
       </c>
+      <c r="L17" s="22">
+        <v>16.600000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
@@ -8977,8 +9013,11 @@
       <c r="K18" s="22">
         <v>12.1</v>
       </c>
+      <c r="L18" s="22">
+        <v>14.7</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
@@ -9012,8 +9051,11 @@
       <c r="K19" s="22">
         <v>10.3</v>
       </c>
+      <c r="L19" s="22">
+        <v>9.1</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
@@ -9047,8 +9089,11 @@
       <c r="K20" s="22">
         <v>15.1</v>
       </c>
+      <c r="L20" s="22">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -9082,8 +9127,11 @@
       <c r="K21" s="22">
         <v>12.1</v>
       </c>
+      <c r="L21" s="22">
+        <v>11.6</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>102</v>
       </c>
@@ -9101,8 +9149,9 @@
       <c r="I22" s="34"/>
       <c r="J22" s="42"/>
       <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>106</v>
       </c>
@@ -9136,8 +9185,11 @@
       <c r="K23" s="32">
         <v>25.9</v>
       </c>
+      <c r="L23" s="32">
+        <v>22.6</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>109</v>
       </c>
@@ -9171,8 +9223,11 @@
       <c r="K24" s="32">
         <v>23.2</v>
       </c>
+      <c r="L24" s="32">
+        <v>21.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>104</v>
       </c>
@@ -9190,8 +9245,9 @@
       <c r="I25" s="36"/>
       <c r="J25" s="43"/>
       <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>66</v>
       </c>
@@ -9225,8 +9281,11 @@
       <c r="K26" s="32">
         <v>25.9</v>
       </c>
+      <c r="L26" s="32">
+        <v>24.3</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>67</v>
       </c>
@@ -9260,8 +9319,11 @@
       <c r="K27" s="32">
         <v>48.3</v>
       </c>
+      <c r="L27" s="32">
+        <v>44.96</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>68</v>
       </c>
@@ -9295,8 +9357,11 @@
       <c r="K28" s="32">
         <v>24.3</v>
       </c>
+      <c r="L28" s="32">
+        <v>22.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>69</v>
       </c>
@@ -9330,8 +9395,11 @@
       <c r="K29" s="32">
         <v>28.1</v>
       </c>
+      <c r="L29" s="32">
+        <v>17.399999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>70</v>
       </c>
@@ -9365,8 +9433,11 @@
       <c r="K30" s="32">
         <v>25.8</v>
       </c>
+      <c r="L30" s="32">
+        <v>30</v>
+      </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>71</v>
       </c>
@@ -9400,8 +9471,11 @@
       <c r="K31" s="32">
         <v>27.1</v>
       </c>
+      <c r="L31" s="32">
+        <v>25.3</v>
+      </c>
     </row>
-    <row r="32" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>72</v>
       </c>
@@ -9435,8 +9509,11 @@
       <c r="K32" s="32">
         <v>20.7</v>
       </c>
+      <c r="L32" s="32">
+        <v>21</v>
+      </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>73</v>
       </c>
@@ -9470,8 +9547,11 @@
       <c r="K33" s="32">
         <v>24.3</v>
       </c>
+      <c r="L33" s="32">
+        <v>22</v>
+      </c>
     </row>
-    <row r="34" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>74</v>
       </c>
@@ -9505,8 +9585,11 @@
       <c r="K34" s="32">
         <v>19.399999999999999</v>
       </c>
+      <c r="L34" s="32">
+        <v>15</v>
+      </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>75</v>
       </c>
@@ -9540,8 +9623,11 @@
       <c r="K35" s="32">
         <v>7.5</v>
       </c>
+      <c r="L35" s="32">
+        <v>6.3</v>
+      </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>76</v>
       </c>
@@ -9575,8 +9661,11 @@
       <c r="K36" s="32">
         <v>11.4</v>
       </c>
+      <c r="L36" s="32">
+        <v>9</v>
+      </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>77</v>
       </c>
@@ -9606,8 +9695,11 @@
       <c r="K37" s="40">
         <v>36.5</v>
       </c>
+      <c r="L37" s="40">
+        <v>39.200000000000003</v>
+      </c>
     </row>
-    <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>78</v>
       </c>
@@ -9641,8 +9733,11 @@
       <c r="K38" s="32">
         <v>17.8</v>
       </c>
+      <c r="L38" s="32">
+        <v>12</v>
+      </c>
     </row>
-    <row r="39" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>79</v>
       </c>
@@ -9676,8 +9771,11 @@
       <c r="K39" s="32">
         <v>20.3</v>
       </c>
+      <c r="L39" s="32">
+        <v>41.3</v>
+      </c>
     </row>
-    <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>80</v>
       </c>
@@ -9711,8 +9809,11 @@
       <c r="K40" s="32">
         <v>20.5</v>
       </c>
+      <c r="L40" s="32">
+        <v>17.399999999999999</v>
+      </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>81</v>
       </c>
@@ -9746,8 +9847,11 @@
       <c r="K41" s="32">
         <v>32.200000000000003</v>
       </c>
+      <c r="L41" s="32">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>82</v>
       </c>
@@ -9781,8 +9885,11 @@
       <c r="K42" s="32">
         <v>23.2</v>
       </c>
+      <c r="L42" s="32">
+        <v>18.899999999999999</v>
+      </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>83</v>
       </c>
@@ -9816,8 +9923,11 @@
       <c r="K43" s="32">
         <v>23.8</v>
       </c>
+      <c r="L43" s="32">
+        <v>15.3</v>
+      </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>84</v>
       </c>
@@ -9851,8 +9961,11 @@
       <c r="K44" s="32">
         <v>21</v>
       </c>
+      <c r="L44" s="32">
+        <v>18.100000000000001</v>
+      </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>85</v>
       </c>
@@ -9886,8 +9999,11 @@
       <c r="K45" s="32">
         <v>18</v>
       </c>
+      <c r="L45" s="32">
+        <v>53</v>
+      </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>86</v>
       </c>
@@ -9921,8 +10037,11 @@
       <c r="K46" s="28">
         <v>3.2</v>
       </c>
+      <c r="L46" s="28">
+        <v>5.2</v>
+      </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
